--- a/docs/StructureDefinition-practitioner.xlsx
+++ b/docs/StructureDefinition-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/practitioner</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCorePractitioner</t>
+    <t>SehatukCorePractitioner</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RoadxCore  Practitioner </t>
+    <t xml:space="preserve">SehatukCore  Practitioner </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore Practitioner Profile</t>
+    <t>SehatukCore Practitioner Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,6 @@
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -266,47 +262,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Practitioner.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Practitioner.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -359,10 +359,6 @@
     <t>Practitioner.meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Version specific identifier</t>
   </si>
   <si>
@@ -688,7 +684,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/practitioner-identifier-type</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/practitioner-identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1155,14 +1151,14 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>roadx-administrative-gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://roadxcore.com/fhir/v1/StructureDefinition/extension-roadx-administrative-gender}
+    <t>sehatuk-administrative-gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/Extension-Sehatuk-administrative-gender}
 </t>
   </si>
   <si>
-    <t>Roadx Administrative Gender Extension</t>
+    <t>Sehatuk Administrative Gender Extension</t>
   </si>
   <si>
     <t>The Saudi Administrative Gender codes</t>
@@ -1668,15 +1664,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1687,26 +1683,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.0625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.05078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="54.29296875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.25" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="54.2734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.85546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.25390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1922,16 +1918,16 @@
         <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>71</v>
@@ -1939,7 +1935,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1947,31 +1943,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2021,13 +2017,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -2050,7 +2046,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2058,28 +2054,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2130,19 +2126,19 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>71</v>
@@ -2159,7 +2155,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2170,7 +2166,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -2182,7 +2178,7 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>95</v>
@@ -2245,7 +2241,7 @@
         <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -2390,28 +2386,28 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2461,19 +2457,19 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>71</v>
@@ -2490,7 +2486,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2501,28 +2497,28 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2572,19 +2568,19 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>71</v>
@@ -2601,7 +2597,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2612,28 +2608,28 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2683,19 +2679,19 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2712,7 +2708,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2720,31 +2716,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2794,7 +2790,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2806,7 +2802,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -2823,7 +2819,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2843,19 +2839,19 @@
         <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2881,31 +2877,31 @@
         <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2917,7 +2913,7 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
@@ -2934,7 +2930,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2954,19 +2950,19 @@
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2992,31 +2988,31 @@
         <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -3028,7 +3024,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
@@ -3045,7 +3041,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3056,28 +3052,28 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3127,19 +3123,19 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -3156,7 +3152,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3167,7 +3163,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -3179,16 +3175,16 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3214,43 +3210,43 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -3267,18 +3263,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -3290,16 +3286,16 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3349,25 +3345,25 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>71</v>
@@ -3378,11 +3374,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3401,16 +3397,16 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3460,7 +3456,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3478,7 +3474,7 @@
         <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>71</v>
@@ -3489,7 +3485,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3518,7 +3514,7 @@
         <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>104</v>
@@ -3571,7 +3567,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3589,7 +3585,7 @@
         <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>71</v>
@@ -3600,7 +3596,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3617,7 +3613,7 @@
         <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>71</v>
@@ -3626,16 +3622,16 @@
         <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>104</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3684,7 +3680,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3702,7 +3698,7 @@
         <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>71</v>
@@ -3713,7 +3709,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3721,32 +3717,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>71</v>
@@ -3795,7 +3791,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3807,24 +3803,24 @@
         <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3835,7 +3831,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -3847,7 +3843,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>95</v>
@@ -3910,7 +3906,7 @@
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3933,7 +3929,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4044,7 +4040,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4055,31 +4051,31 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -4104,49 +4100,49 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>71</v>
@@ -4157,7 +4153,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4165,34 +4161,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>71</v>
@@ -4217,47 +4213,47 @@
         <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>71</v>
@@ -4268,7 +4264,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4276,34 +4272,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
@@ -4316,64 +4312,64 @@
         <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>71</v>
@@ -4381,7 +4377,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4389,31 +4385,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4427,64 +4423,64 @@
         <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>71</v>
@@ -4492,7 +4488,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4503,25 +4499,25 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4572,28 +4568,28 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>71</v>
@@ -4601,7 +4597,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4612,28 +4608,28 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4683,28 +4679,28 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>71</v>
@@ -4712,7 +4708,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4723,111 +4719,111 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P28" t="s" s="2">
+      <c r="Q28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Q28" t="s" s="2">
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4841,28 +4837,28 @@
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -4911,7 +4907,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4923,16 +4919,16 @@
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>71</v>
@@ -4940,7 +4936,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4951,7 +4947,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4963,7 +4959,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>95</v>
@@ -5026,7 +5022,7 @@
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -5049,7 +5045,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5160,7 +5156,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5171,31 +5167,31 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -5220,52 +5216,52 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>71</v>
@@ -5273,7 +5269,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5281,34 +5277,34 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
@@ -5357,25 +5353,25 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>71</v>
@@ -5386,39 +5382,39 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5468,28 +5464,28 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>71</v>
@@ -5497,11 +5493,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5517,19 +5513,19 @@
         <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5579,7 +5575,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5591,16 +5587,16 @@
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>71</v>
@@ -5608,7 +5604,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5628,16 +5624,16 @@
         <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5688,7 +5684,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5700,16 +5696,16 @@
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>71</v>
@@ -5717,7 +5713,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5737,16 +5733,16 @@
         <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5797,7 +5793,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5809,13 +5805,13 @@
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>71</v>
@@ -5826,7 +5822,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5837,29 +5833,29 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -5908,28 +5904,28 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AL38" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>71</v>
@@ -5937,7 +5933,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5957,22 +5953,22 @@
         <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>71</v>
@@ -6021,7 +6017,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -6033,16 +6029,16 @@
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>71</v>
@@ -6050,7 +6046,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6070,22 +6066,22 @@
         <v>71</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>71</v>
@@ -6134,7 +6130,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -6146,16 +6142,16 @@
         <v>71</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>71</v>
@@ -6163,7 +6159,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6174,29 +6170,29 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>71</v>
@@ -6221,52 +6217,52 @@
         <v>71</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>71</v>
@@ -6274,7 +6270,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6285,7 +6281,7 @@
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -6297,13 +6293,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6360,7 +6356,7 @@
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -6383,7 +6379,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6409,10 +6405,10 @@
         <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6490,10 +6486,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>71</v>
@@ -6503,11 +6499,11 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>71</v>
       </c>
@@ -6515,13 +6511,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6581,7 +6577,7 @@
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>109</v>
@@ -6601,7 +6597,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6612,7 +6608,7 @@
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -6624,13 +6620,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6681,13 +6677,13 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
@@ -6710,7 +6706,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6721,29 +6717,29 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>71</v>
@@ -6792,28 +6788,28 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>71</v>
@@ -6821,7 +6817,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6844,17 +6840,17 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>71</v>
@@ -6903,7 +6899,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6915,16 +6911,16 @@
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>71</v>
@@ -6932,7 +6928,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6955,13 +6951,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7012,7 +7008,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -7024,16 +7020,16 @@
         <v>71</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>71</v>
@@ -7041,7 +7037,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7052,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>71</v>
@@ -7064,7 +7060,7 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>95</v>
@@ -7127,7 +7123,7 @@
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>71</v>
@@ -7150,7 +7146,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7261,11 +7257,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7278,25 +7274,25 @@
         <v>71</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>104</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>71</v>
@@ -7345,7 +7341,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7363,7 +7359,7 @@
         <v>71</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>71</v>
@@ -7374,7 +7370,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7397,17 +7393,17 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>71</v>
@@ -7456,7 +7452,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7468,13 +7464,13 @@
         <v>71</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>71</v>
@@ -7485,7 +7481,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7493,10 +7489,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>71</v>
@@ -7508,13 +7504,13 @@
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7541,52 +7537,52 @@
         <v>71</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>71</v>
@@ -7594,7 +7590,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7605,7 +7601,7 @@
         <v>72</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>71</v>
@@ -7617,17 +7613,17 @@
         <v>71</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>71</v>
@@ -7676,28 +7672,28 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>71</v>
@@ -7705,7 +7701,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7716,7 +7712,7 @@
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>71</v>
@@ -7728,13 +7724,13 @@
         <v>71</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7785,25 +7781,25 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>71</v>
@@ -7814,7 +7810,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7837,19 +7833,19 @@
         <v>71</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>71</v>
@@ -7874,14 +7870,14 @@
         <v>71</v>
       </c>
       <c r="W56" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X56" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X56" t="s" s="2">
+      <c r="Y56" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>71</v>
       </c>
@@ -7898,7 +7894,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7910,16 +7906,16 @@
         <v>71</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>71</v>

--- a/docs/StructureDefinition-practitioner.xlsx
+++ b/docs/StructureDefinition-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
